--- a/SCH-STH/Impact assessments/Senegal/2024/oct 2024/sn_sch_sth_impact_202410_3_resultat.xlsx
+++ b/SCH-STH/Impact assessments/Senegal/2024/oct 2024/sn_sch_sth_impact_202410_3_resultat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\SCH-STH\Impact assessments\Senegal\2024\oct 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF1622D-77C0-414E-ADBD-11AB40FB98AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C72285AE-2012-485A-91E5-39B0236BC53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -475,16 +475,16 @@
     <t>${r_test} = 'Filtration d urine + Kato katz'</t>
   </si>
   <si>
-    <t>(2024 Mar) - 3. SCH/STH – Resultats V4</t>
-  </si>
-  <si>
     <t>16. Notes additionnelles</t>
   </si>
   <si>
-    <t>sn_r_2403_v4</t>
-  </si>
-  <si>
-    <t>sn_sch_sth_impact_20403_3_res_v4_1</t>
+    <t>sn_sch_sth_impact_202410_3_resultat</t>
+  </si>
+  <si>
+    <t>(2024 Oct) - 3. SCH/STH – Resultats</t>
+  </si>
+  <si>
+    <t>sn_r_2410</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1559,7 +1559,7 @@
         <v>90</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C8" s="75" t="s">
         <v>121</v>
@@ -2426,7 +2426,7 @@
         <v>60</v>
       </c>
       <c r="C47" s="83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="7"/>
@@ -2678,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="23" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
